--- a/Code/Results/Cases/Case_3_128/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_128/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018591816435983</v>
+        <v>1.041699186451632</v>
       </c>
       <c r="D2">
-        <v>1.032334335875227</v>
+        <v>1.042967135455924</v>
       </c>
       <c r="E2">
-        <v>1.022343898881362</v>
+        <v>1.039923283595741</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053436409477075</v>
+        <v>1.041867214018811</v>
       </c>
       <c r="J2">
-        <v>1.040230321364553</v>
+        <v>1.046778987644194</v>
       </c>
       <c r="K2">
-        <v>1.043360857292882</v>
+        <v>1.045742329522629</v>
       </c>
       <c r="L2">
-        <v>1.033500482558926</v>
+        <v>1.042707093143562</v>
       </c>
       <c r="N2">
-        <v>1.041707567736976</v>
+        <v>1.048265533873876</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02392018717672</v>
+        <v>1.042778172017404</v>
       </c>
       <c r="D3">
-        <v>1.036286291535995</v>
+        <v>1.043775313598928</v>
       </c>
       <c r="E3">
-        <v>1.026681947960829</v>
+        <v>1.040844816310789</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055441025169737</v>
+        <v>1.04219372257804</v>
       </c>
       <c r="J3">
-        <v>1.043779343837581</v>
+        <v>1.047503464140105</v>
       </c>
       <c r="K3">
-        <v>1.046475015844037</v>
+        <v>1.04636145411738</v>
       </c>
       <c r="L3">
-        <v>1.036984441861096</v>
+        <v>1.043438650924582</v>
       </c>
       <c r="N3">
-        <v>1.045261630228995</v>
+        <v>1.04899103920951</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02728629655468</v>
+        <v>1.043476121564872</v>
       </c>
       <c r="D4">
-        <v>1.038784992412193</v>
+        <v>1.044297989123603</v>
       </c>
       <c r="E4">
-        <v>1.02942802480857</v>
+        <v>1.041441250279764</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05669598057648</v>
+        <v>1.042403514909571</v>
       </c>
       <c r="J4">
-        <v>1.046016864835626</v>
+        <v>1.04797145537686</v>
       </c>
       <c r="K4">
-        <v>1.048436810465745</v>
+        <v>1.046761148605135</v>
       </c>
       <c r="L4">
-        <v>1.039183793533914</v>
+        <v>1.043911532047782</v>
       </c>
       <c r="N4">
-        <v>1.047502328763504</v>
+        <v>1.049459695047501</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028682641653414</v>
+        <v>1.043769485877176</v>
       </c>
       <c r="D5">
-        <v>1.03982196219828</v>
+        <v>1.04451765699492</v>
       </c>
       <c r="E5">
-        <v>1.030568454019707</v>
+        <v>1.041692024596478</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057213780389213</v>
+        <v>1.042491357104337</v>
       </c>
       <c r="J5">
-        <v>1.046943918674834</v>
+        <v>1.048168008921229</v>
       </c>
       <c r="K5">
-        <v>1.049249238279148</v>
+        <v>1.04692895967638</v>
       </c>
       <c r="L5">
-        <v>1.040095715681501</v>
+        <v>1.044110214918594</v>
       </c>
       <c r="N5">
-        <v>1.048430699125499</v>
+        <v>1.049656527720449</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028916015783001</v>
+        <v>1.043818739902678</v>
       </c>
       <c r="D6">
-        <v>1.039995297720779</v>
+        <v>1.044554536380418</v>
       </c>
       <c r="E6">
-        <v>1.030759130711611</v>
+        <v>1.041734132664835</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057300156246784</v>
+        <v>1.042506085405549</v>
       </c>
       <c r="J6">
-        <v>1.047098791822402</v>
+        <v>1.04820099998598</v>
       </c>
       <c r="K6">
-        <v>1.049384938985845</v>
+        <v>1.046957122960517</v>
       </c>
       <c r="L6">
-        <v>1.04024810105583</v>
+        <v>1.044143567821457</v>
       </c>
       <c r="N6">
-        <v>1.048585792210701</v>
+        <v>1.049689565636296</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027305027314469</v>
+        <v>1.04348004172347</v>
       </c>
       <c r="D7">
-        <v>1.038798900775035</v>
+        <v>1.044300924591967</v>
       </c>
       <c r="E7">
-        <v>1.029443317649487</v>
+        <v>1.041444601007178</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056702937486741</v>
+        <v>1.042404690054299</v>
       </c>
       <c r="J7">
-        <v>1.046029304961144</v>
+        <v>1.047974082481411</v>
       </c>
       <c r="K7">
-        <v>1.048447713970352</v>
+        <v>1.046763391771415</v>
       </c>
       <c r="L7">
-        <v>1.039196027908525</v>
+        <v>1.043914187315321</v>
       </c>
       <c r="N7">
-        <v>1.047514786555427</v>
+        <v>1.049462325882842</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020409973890073</v>
+        <v>1.042063881820355</v>
       </c>
       <c r="D8">
-        <v>1.033682346474013</v>
+        <v>1.043240318702295</v>
       </c>
       <c r="E8">
-        <v>1.023822930117526</v>
+        <v>1.040234690641353</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05412280251036</v>
+        <v>1.041977865636684</v>
       </c>
       <c r="J8">
-        <v>1.041442248919515</v>
+        <v>1.047023992164989</v>
       </c>
       <c r="K8">
-        <v>1.044424607916954</v>
+        <v>1.045951756110284</v>
       </c>
       <c r="L8">
-        <v>1.034689591336439</v>
+        <v>1.042954427036203</v>
       </c>
       <c r="N8">
-        <v>1.042921216368076</v>
+        <v>1.048510886329194</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007596041594051</v>
+        <v>1.039566671718287</v>
       </c>
       <c r="D9">
-        <v>1.0241936279103</v>
+        <v>1.041369343616321</v>
       </c>
       <c r="E9">
-        <v>1.013425227283945</v>
+        <v>1.038103759798202</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04923834849072</v>
+        <v>1.041214409476974</v>
       </c>
       <c r="J9">
-        <v>1.032883386353912</v>
+        <v>1.04534373400741</v>
       </c>
       <c r="K9">
-        <v>1.036906007323613</v>
+        <v>1.044514504818132</v>
       </c>
       <c r="L9">
-        <v>1.026304180999808</v>
+        <v>1.041259490078926</v>
       </c>
       <c r="N9">
-        <v>1.034350199235915</v>
+        <v>1.046828242012303</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.998549148091315</v>
+        <v>1.037900650148182</v>
       </c>
       <c r="D10">
-        <v>1.017512539772932</v>
+        <v>1.040120663708747</v>
       </c>
       <c r="E10">
-        <v>1.006120324489084</v>
+        <v>1.036683877665217</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045732162958614</v>
+        <v>1.040697817559755</v>
       </c>
       <c r="J10">
-        <v>1.026820447816322</v>
+        <v>1.044219472301486</v>
       </c>
       <c r="K10">
-        <v>1.031572638662336</v>
+        <v>1.043551603954343</v>
       </c>
       <c r="L10">
-        <v>1.020379946918898</v>
+        <v>1.040127034603456</v>
       </c>
       <c r="N10">
-        <v>1.028278650630172</v>
+        <v>1.045702383725802</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9944977841499498</v>
+        <v>1.037178947593417</v>
       </c>
       <c r="D11">
-        <v>1.014526033245677</v>
+        <v>1.039579650819083</v>
       </c>
       <c r="E11">
-        <v>1.002858583530861</v>
+        <v>1.036069229013195</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044149059506777</v>
+        <v>1.040472319613455</v>
       </c>
       <c r="J11">
-        <v>1.024101266798282</v>
+        <v>1.043731682934818</v>
       </c>
       <c r="K11">
-        <v>1.029179112366087</v>
+        <v>1.043133534544205</v>
       </c>
       <c r="L11">
-        <v>1.017726791752574</v>
+        <v>1.039636075944033</v>
       </c>
       <c r="N11">
-        <v>1.025555608063193</v>
+        <v>1.045213901642283</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9929714463601043</v>
+        <v>1.036910828559326</v>
       </c>
       <c r="D12">
-        <v>1.01340178987537</v>
+        <v>1.039378645638569</v>
       </c>
       <c r="E12">
-        <v>1.001631253627929</v>
+        <v>1.03584094658967</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043550746421311</v>
+        <v>1.040388287560958</v>
       </c>
       <c r="J12">
-        <v>1.02307627494718</v>
+        <v>1.04355034926831</v>
       </c>
       <c r="K12">
-        <v>1.028276659309952</v>
+        <v>1.042978075529497</v>
       </c>
       <c r="L12">
-        <v>1.016727267981254</v>
+        <v>1.039453622049256</v>
       </c>
       <c r="N12">
-        <v>1.024529160606093</v>
+        <v>1.045032310461169</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.993299846023707</v>
+        <v>1.036968343123664</v>
       </c>
       <c r="D13">
-        <v>1.013643633874298</v>
+        <v>1.039421764143429</v>
       </c>
       <c r="E13">
-        <v>1.001895250018193</v>
+        <v>1.035889912793306</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043679560676499</v>
+        <v>1.04040632503517</v>
       </c>
       <c r="J13">
-        <v>1.023296831116357</v>
+        <v>1.043589252610376</v>
       </c>
       <c r="K13">
-        <v>1.028470857261751</v>
+        <v>1.043011429684253</v>
       </c>
       <c r="L13">
-        <v>1.016942317680748</v>
+        <v>1.039492763103674</v>
       </c>
       <c r="N13">
-        <v>1.02475002999033</v>
+        <v>1.045071269050443</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9943720630190634</v>
+        <v>1.037156785745474</v>
       </c>
       <c r="D14">
-        <v>1.014433412614964</v>
+        <v>1.039563036665175</v>
       </c>
       <c r="E14">
-        <v>1.002757459626945</v>
+        <v>1.036050358597859</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044099815638604</v>
+        <v>1.040465379048652</v>
       </c>
       <c r="J14">
-        <v>1.024016851219036</v>
+        <v>1.043716696837114</v>
       </c>
       <c r="K14">
-        <v>1.029104793046712</v>
+        <v>1.043120687710313</v>
       </c>
       <c r="L14">
-        <v>1.017644461846305</v>
+        <v>1.039620996084801</v>
       </c>
       <c r="N14">
-        <v>1.025471072604141</v>
+        <v>1.045198894262601</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9950298025080166</v>
+        <v>1.03727288526708</v>
       </c>
       <c r="D15">
-        <v>1.014918016888824</v>
+        <v>1.039650072851296</v>
       </c>
       <c r="E15">
-        <v>1.003286575411417</v>
+        <v>1.036149217924967</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044357370117849</v>
+        <v>1.040501728119594</v>
       </c>
       <c r="J15">
-        <v>1.024458469075102</v>
+        <v>1.043795199948029</v>
       </c>
       <c r="K15">
-        <v>1.029493583882325</v>
+        <v>1.043187982732996</v>
       </c>
       <c r="L15">
-        <v>1.018075192199078</v>
+        <v>1.039699992727754</v>
       </c>
       <c r="N15">
-        <v>1.025913317608218</v>
+        <v>1.045277508856938</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9988150880974734</v>
+        <v>1.037948540686426</v>
       </c>
       <c r="D16">
-        <v>1.017708701027073</v>
+        <v>1.040156562088287</v>
       </c>
       <c r="E16">
-        <v>1.006334637364394</v>
+        <v>1.036724673443635</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045835816936357</v>
+        <v>1.040712744967038</v>
       </c>
       <c r="J16">
-        <v>1.026998860944566</v>
+        <v>1.044251824677572</v>
       </c>
       <c r="K16">
-        <v>1.031729653824789</v>
+        <v>1.043579326091105</v>
       </c>
       <c r="L16">
-        <v>1.020554107720376</v>
+        <v>1.040159605301453</v>
       </c>
       <c r="N16">
-        <v>1.028457317125523</v>
+        <v>1.045734782045973</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.001152706524973</v>
+        <v>1.038372279421554</v>
       </c>
       <c r="D17">
-        <v>1.019433587820705</v>
+        <v>1.040474182138774</v>
       </c>
       <c r="E17">
-        <v>1.008219543555529</v>
+        <v>1.037085686888946</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046745473265071</v>
+        <v>1.040844625533283</v>
       </c>
       <c r="J17">
-        <v>1.028566659877203</v>
+        <v>1.044537991660217</v>
       </c>
       <c r="K17">
-        <v>1.033109244897534</v>
+        <v>1.043824503642427</v>
       </c>
       <c r="L17">
-        <v>1.022084973097388</v>
+        <v>1.04044774792807</v>
       </c>
       <c r="N17">
-        <v>1.030027342512473</v>
+        <v>1.046021355418556</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002503367986658</v>
+        <v>1.038619409761947</v>
       </c>
       <c r="D18">
-        <v>1.020430721077068</v>
+        <v>1.040659413055007</v>
       </c>
       <c r="E18">
-        <v>1.009309525538369</v>
+        <v>1.037296276298392</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0472698362445</v>
+        <v>1.040921374581952</v>
       </c>
       <c r="J18">
-        <v>1.029472133553232</v>
+        <v>1.04470481380599</v>
       </c>
       <c r="K18">
-        <v>1.033905872410487</v>
+        <v>1.043967402829832</v>
       </c>
       <c r="L18">
-        <v>1.022969476287743</v>
+        <v>1.040615758962489</v>
       </c>
       <c r="N18">
-        <v>1.030934102064981</v>
+        <v>1.046188414470911</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002961771195335</v>
+        <v>1.03870366987901</v>
       </c>
       <c r="D19">
-        <v>1.020769222432625</v>
+        <v>1.040722566666718</v>
       </c>
       <c r="E19">
-        <v>1.009679605567856</v>
+        <v>1.037368084623468</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047447590020736</v>
+        <v>1.040947514403009</v>
       </c>
       <c r="J19">
-        <v>1.029779375600209</v>
+        <v>1.044761679873903</v>
       </c>
       <c r="K19">
-        <v>1.034176155625028</v>
+        <v>1.044016109320508</v>
       </c>
       <c r="L19">
-        <v>1.023269663651083</v>
+        <v>1.040673036603661</v>
       </c>
       <c r="N19">
-        <v>1.031241780430907</v>
+        <v>1.046245361295163</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000903238817338</v>
+        <v>1.03832681930165</v>
       </c>
       <c r="D20">
-        <v>1.019249457014301</v>
+        <v>1.040440107769059</v>
       </c>
       <c r="E20">
-        <v>1.008018295224311</v>
+        <v>1.037046951869313</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046648523210557</v>
+        <v>1.040830494062649</v>
       </c>
       <c r="J20">
-        <v>1.028399386470521</v>
+        <v>1.044507298397866</v>
       </c>
       <c r="K20">
-        <v>1.032962067204233</v>
+        <v>1.043798209658628</v>
       </c>
       <c r="L20">
-        <v>1.02192160279871</v>
+        <v>1.04041683891876</v>
       </c>
       <c r="N20">
-        <v>1.029859831558368</v>
+        <v>1.045990618568253</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9940569262489721</v>
+        <v>1.037101295382718</v>
       </c>
       <c r="D21">
-        <v>1.01420126171165</v>
+        <v>1.039521436777787</v>
       </c>
       <c r="E21">
-        <v>1.002504003868197</v>
+        <v>1.036003110605129</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043976349212971</v>
+        <v>1.04044799662503</v>
       </c>
       <c r="J21">
-        <v>1.023805243699066</v>
+        <v>1.0436791717481</v>
       </c>
       <c r="K21">
-        <v>1.028918490754831</v>
+        <v>1.043088518622534</v>
       </c>
       <c r="L21">
-        <v>1.017438091910423</v>
+        <v>1.039583237153337</v>
       </c>
       <c r="N21">
-        <v>1.025259164577222</v>
+        <v>1.045161315883657</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9896273382904599</v>
+        <v>1.036330489976467</v>
       </c>
       <c r="D22">
-        <v>1.010940442613184</v>
+        <v>1.03894354896784</v>
       </c>
       <c r="E22">
-        <v>0.9989451543752663</v>
+        <v>1.035346953414138</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042236486730984</v>
+        <v>1.040205931109257</v>
       </c>
       <c r="J22">
-        <v>1.020829646822541</v>
+        <v>1.043157645166809</v>
       </c>
       <c r="K22">
-        <v>1.026298238747296</v>
+        <v>1.04264132742765</v>
       </c>
       <c r="L22">
-        <v>1.014537536966382</v>
+        <v>1.039058597914271</v>
       </c>
       <c r="N22">
-        <v>1.022279342011826</v>
+        <v>1.044639048674801</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9919878814727631</v>
+        <v>1.036739134377262</v>
       </c>
       <c r="D23">
-        <v>1.012677603198781</v>
+        <v>1.039249925009395</v>
       </c>
       <c r="E23">
-        <v>1.000840808036297</v>
+        <v>1.035694780813301</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043164673648743</v>
+        <v>1.040334403870848</v>
       </c>
       <c r="J23">
-        <v>1.022415628565266</v>
+        <v>1.043434196975663</v>
       </c>
       <c r="K23">
-        <v>1.027694935057728</v>
+        <v>1.042878484895563</v>
       </c>
       <c r="L23">
-        <v>1.016083200970242</v>
+        <v>1.039336768511159</v>
       </c>
       <c r="N23">
-        <v>1.02386757603054</v>
+        <v>1.044915993218944</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001016002090894</v>
+        <v>1.038347360863226</v>
       </c>
       <c r="D24">
-        <v>1.01933268543777</v>
+        <v>1.040455504607192</v>
       </c>
       <c r="E24">
-        <v>1.008109259822019</v>
+        <v>1.037064454506619</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04669234996264</v>
+        <v>1.040836880005495</v>
       </c>
       <c r="J24">
-        <v>1.028474997862526</v>
+        <v>1.044521167652876</v>
       </c>
       <c r="K24">
-        <v>1.033028595335547</v>
+        <v>1.043810091113916</v>
       </c>
       <c r="L24">
-        <v>1.021995448779362</v>
+        <v>1.040430805547691</v>
       </c>
       <c r="N24">
-        <v>1.029935550327222</v>
+        <v>1.046004507519196</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010993108146468</v>
+        <v>1.040212471967566</v>
       </c>
       <c r="D25">
-        <v>1.026706385971272</v>
+        <v>1.041853276980113</v>
       </c>
       <c r="E25">
-        <v>1.016175840963542</v>
+        <v>1.038654526946066</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050543368571645</v>
+        <v>1.041413124555788</v>
       </c>
       <c r="J25">
-        <v>1.035156090733442</v>
+        <v>1.04577884157871</v>
       </c>
       <c r="K25">
-        <v>1.038903797628567</v>
+        <v>1.044886903268138</v>
       </c>
       <c r="L25">
-        <v>1.028528132217654</v>
+        <v>1.041698112203022</v>
       </c>
       <c r="N25">
-        <v>1.036626131116346</v>
+        <v>1.047263967486261</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_128/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_128/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041699186451632</v>
+        <v>1.018591816435984</v>
       </c>
       <c r="D2">
-        <v>1.042967135455924</v>
+        <v>1.032334335875228</v>
       </c>
       <c r="E2">
-        <v>1.039923283595741</v>
+        <v>1.022343898881362</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041867214018811</v>
+        <v>1.053436409477075</v>
       </c>
       <c r="J2">
-        <v>1.046778987644194</v>
+        <v>1.040230321364554</v>
       </c>
       <c r="K2">
-        <v>1.045742329522629</v>
+        <v>1.043360857292883</v>
       </c>
       <c r="L2">
-        <v>1.042707093143562</v>
+        <v>1.033500482558927</v>
       </c>
       <c r="N2">
-        <v>1.048265533873876</v>
+        <v>1.041707567736977</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042778172017404</v>
+        <v>1.023920187176721</v>
       </c>
       <c r="D3">
-        <v>1.043775313598928</v>
+        <v>1.036286291535995</v>
       </c>
       <c r="E3">
-        <v>1.040844816310789</v>
+        <v>1.02668194796083</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04219372257804</v>
+        <v>1.055441025169737</v>
       </c>
       <c r="J3">
-        <v>1.047503464140105</v>
+        <v>1.043779343837582</v>
       </c>
       <c r="K3">
-        <v>1.04636145411738</v>
+        <v>1.046475015844038</v>
       </c>
       <c r="L3">
-        <v>1.043438650924582</v>
+        <v>1.036984441861097</v>
       </c>
       <c r="N3">
-        <v>1.04899103920951</v>
+        <v>1.045261630228995</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043476121564872</v>
+        <v>1.02728629655468</v>
       </c>
       <c r="D4">
-        <v>1.044297989123603</v>
+        <v>1.038784992412193</v>
       </c>
       <c r="E4">
-        <v>1.041441250279764</v>
+        <v>1.029428024808571</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042403514909571</v>
+        <v>1.05669598057648</v>
       </c>
       <c r="J4">
-        <v>1.04797145537686</v>
+        <v>1.046016864835626</v>
       </c>
       <c r="K4">
-        <v>1.046761148605135</v>
+        <v>1.048436810465744</v>
       </c>
       <c r="L4">
-        <v>1.043911532047782</v>
+        <v>1.039183793533914</v>
       </c>
       <c r="N4">
-        <v>1.049459695047501</v>
+        <v>1.047502328763504</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043769485877176</v>
+        <v>1.028682641653414</v>
       </c>
       <c r="D5">
-        <v>1.04451765699492</v>
+        <v>1.03982196219828</v>
       </c>
       <c r="E5">
-        <v>1.041692024596478</v>
+        <v>1.030568454019706</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042491357104337</v>
+        <v>1.057213780389213</v>
       </c>
       <c r="J5">
-        <v>1.048168008921229</v>
+        <v>1.046943918674834</v>
       </c>
       <c r="K5">
-        <v>1.04692895967638</v>
+        <v>1.049249238279148</v>
       </c>
       <c r="L5">
-        <v>1.044110214918594</v>
+        <v>1.0400957156815</v>
       </c>
       <c r="N5">
-        <v>1.049656527720449</v>
+        <v>1.048430699125498</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043818739902678</v>
+        <v>1.028916015783003</v>
       </c>
       <c r="D6">
-        <v>1.044554536380418</v>
+        <v>1.03999529772078</v>
       </c>
       <c r="E6">
-        <v>1.041734132664835</v>
+        <v>1.030759130711613</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042506085405549</v>
+        <v>1.057300156246785</v>
       </c>
       <c r="J6">
-        <v>1.04820099998598</v>
+        <v>1.047098791822404</v>
       </c>
       <c r="K6">
-        <v>1.046957122960517</v>
+        <v>1.049384938985847</v>
       </c>
       <c r="L6">
-        <v>1.044143567821457</v>
+        <v>1.040248101055832</v>
       </c>
       <c r="N6">
-        <v>1.049689565636296</v>
+        <v>1.048585792210702</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04348004172347</v>
+        <v>1.02730502731447</v>
       </c>
       <c r="D7">
-        <v>1.044300924591967</v>
+        <v>1.038798900775036</v>
       </c>
       <c r="E7">
-        <v>1.041444601007178</v>
+        <v>1.029443317649488</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042404690054299</v>
+        <v>1.056702937486742</v>
       </c>
       <c r="J7">
-        <v>1.047974082481411</v>
+        <v>1.046029304961145</v>
       </c>
       <c r="K7">
-        <v>1.046763391771415</v>
+        <v>1.048447713970353</v>
       </c>
       <c r="L7">
-        <v>1.043914187315321</v>
+        <v>1.039196027908526</v>
       </c>
       <c r="N7">
-        <v>1.049462325882842</v>
+        <v>1.047514786555428</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042063881820355</v>
+        <v>1.020409973890071</v>
       </c>
       <c r="D8">
-        <v>1.043240318702295</v>
+        <v>1.033682346474011</v>
       </c>
       <c r="E8">
-        <v>1.040234690641353</v>
+        <v>1.023822930117524</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041977865636684</v>
+        <v>1.054122802510359</v>
       </c>
       <c r="J8">
-        <v>1.047023992164989</v>
+        <v>1.041442248919513</v>
       </c>
       <c r="K8">
-        <v>1.045951756110284</v>
+        <v>1.044424607916952</v>
       </c>
       <c r="L8">
-        <v>1.042954427036203</v>
+        <v>1.034689591336436</v>
       </c>
       <c r="N8">
-        <v>1.048510886329194</v>
+        <v>1.042921216368074</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039566671718287</v>
+        <v>1.00759604159405</v>
       </c>
       <c r="D9">
-        <v>1.041369343616321</v>
+        <v>1.024193627910298</v>
       </c>
       <c r="E9">
-        <v>1.038103759798202</v>
+        <v>1.013425227283944</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041214409476974</v>
+        <v>1.049238348490719</v>
       </c>
       <c r="J9">
-        <v>1.04534373400741</v>
+        <v>1.032883386353911</v>
       </c>
       <c r="K9">
-        <v>1.044514504818132</v>
+        <v>1.036906007323612</v>
       </c>
       <c r="L9">
-        <v>1.041259490078926</v>
+        <v>1.026304180999807</v>
       </c>
       <c r="N9">
-        <v>1.046828242012303</v>
+        <v>1.034350199235914</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037900650148182</v>
+        <v>0.9985491480913131</v>
       </c>
       <c r="D10">
-        <v>1.040120663708747</v>
+        <v>1.017512539772931</v>
       </c>
       <c r="E10">
-        <v>1.036683877665217</v>
+        <v>1.006120324489082</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040697817559755</v>
+        <v>1.045732162958613</v>
       </c>
       <c r="J10">
-        <v>1.044219472301486</v>
+        <v>1.02682044781632</v>
       </c>
       <c r="K10">
-        <v>1.043551603954343</v>
+        <v>1.031572638662335</v>
       </c>
       <c r="L10">
-        <v>1.040127034603456</v>
+        <v>1.020379946918897</v>
       </c>
       <c r="N10">
-        <v>1.045702383725802</v>
+        <v>1.028278650630171</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037178947593417</v>
+        <v>0.9944977841499484</v>
       </c>
       <c r="D11">
-        <v>1.039579650819083</v>
+        <v>1.014526033245676</v>
       </c>
       <c r="E11">
-        <v>1.036069229013195</v>
+        <v>1.002858583530859</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040472319613455</v>
+        <v>1.044149059506776</v>
       </c>
       <c r="J11">
-        <v>1.043731682934818</v>
+        <v>1.024101266798281</v>
       </c>
       <c r="K11">
-        <v>1.043133534544205</v>
+        <v>1.029179112366086</v>
       </c>
       <c r="L11">
-        <v>1.039636075944033</v>
+        <v>1.017726791752573</v>
       </c>
       <c r="N11">
-        <v>1.045213901642283</v>
+        <v>1.025555608063191</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036910828559326</v>
+        <v>0.9929714463601018</v>
       </c>
       <c r="D12">
-        <v>1.039378645638569</v>
+        <v>1.013401789875367</v>
       </c>
       <c r="E12">
-        <v>1.03584094658967</v>
+        <v>1.001631253627926</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040388287560958</v>
+        <v>1.043550746421309</v>
       </c>
       <c r="J12">
-        <v>1.04355034926831</v>
+        <v>1.023076274947177</v>
       </c>
       <c r="K12">
-        <v>1.042978075529497</v>
+        <v>1.02827665930995</v>
       </c>
       <c r="L12">
-        <v>1.039453622049256</v>
+        <v>1.016727267981252</v>
       </c>
       <c r="N12">
-        <v>1.045032310461169</v>
+        <v>1.024529160606092</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036968343123664</v>
+        <v>0.9932998460237066</v>
       </c>
       <c r="D13">
-        <v>1.039421764143429</v>
+        <v>1.013643633874297</v>
       </c>
       <c r="E13">
-        <v>1.035889912793306</v>
+        <v>1.001895250018192</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04040632503517</v>
+        <v>1.043679560676499</v>
       </c>
       <c r="J13">
-        <v>1.043589252610376</v>
+        <v>1.023296831116357</v>
       </c>
       <c r="K13">
-        <v>1.043011429684253</v>
+        <v>1.028470857261751</v>
       </c>
       <c r="L13">
-        <v>1.039492763103674</v>
+        <v>1.016942317680747</v>
       </c>
       <c r="N13">
-        <v>1.045071269050443</v>
+        <v>1.024750029990329</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037156785745474</v>
+        <v>0.994372063019062</v>
       </c>
       <c r="D14">
-        <v>1.039563036665175</v>
+        <v>1.014433412614963</v>
       </c>
       <c r="E14">
-        <v>1.036050358597859</v>
+        <v>1.002757459626944</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040465379048652</v>
+        <v>1.044099815638603</v>
       </c>
       <c r="J14">
-        <v>1.043716696837114</v>
+        <v>1.024016851219035</v>
       </c>
       <c r="K14">
-        <v>1.043120687710313</v>
+        <v>1.029104793046711</v>
       </c>
       <c r="L14">
-        <v>1.039620996084801</v>
+        <v>1.017644461846304</v>
       </c>
       <c r="N14">
-        <v>1.045198894262601</v>
+        <v>1.02547107260414</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03727288526708</v>
+        <v>0.9950298025080161</v>
       </c>
       <c r="D15">
-        <v>1.039650072851296</v>
+        <v>1.014918016888823</v>
       </c>
       <c r="E15">
-        <v>1.036149217924967</v>
+        <v>1.003286575411416</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040501728119594</v>
+        <v>1.044357370117849</v>
       </c>
       <c r="J15">
-        <v>1.043795199948029</v>
+        <v>1.024458469075102</v>
       </c>
       <c r="K15">
-        <v>1.043187982732996</v>
+        <v>1.029493583882325</v>
       </c>
       <c r="L15">
-        <v>1.039699992727754</v>
+        <v>1.018075192199077</v>
       </c>
       <c r="N15">
-        <v>1.045277508856938</v>
+        <v>1.025913317608218</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037948540686426</v>
+        <v>0.9988150880974734</v>
       </c>
       <c r="D16">
-        <v>1.040156562088287</v>
+        <v>1.017708701027073</v>
       </c>
       <c r="E16">
-        <v>1.036724673443635</v>
+        <v>1.006334637364393</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040712744967038</v>
+        <v>1.045835816936358</v>
       </c>
       <c r="J16">
-        <v>1.044251824677572</v>
+        <v>1.026998860944566</v>
       </c>
       <c r="K16">
-        <v>1.043579326091105</v>
+        <v>1.031729653824789</v>
       </c>
       <c r="L16">
-        <v>1.040159605301453</v>
+        <v>1.020554107720375</v>
       </c>
       <c r="N16">
-        <v>1.045734782045973</v>
+        <v>1.028457317125523</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038372279421554</v>
+        <v>1.001152706524974</v>
       </c>
       <c r="D17">
-        <v>1.040474182138774</v>
+        <v>1.019433587820705</v>
       </c>
       <c r="E17">
-        <v>1.037085686888946</v>
+        <v>1.00821954355553</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040844625533283</v>
+        <v>1.046745473265071</v>
       </c>
       <c r="J17">
-        <v>1.044537991660217</v>
+        <v>1.028566659877204</v>
       </c>
       <c r="K17">
-        <v>1.043824503642427</v>
+        <v>1.033109244897535</v>
       </c>
       <c r="L17">
-        <v>1.04044774792807</v>
+        <v>1.022084973097389</v>
       </c>
       <c r="N17">
-        <v>1.046021355418556</v>
+        <v>1.030027342512474</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038619409761947</v>
+        <v>1.002503367986658</v>
       </c>
       <c r="D18">
-        <v>1.040659413055007</v>
+        <v>1.020430721077068</v>
       </c>
       <c r="E18">
-        <v>1.037296276298392</v>
+        <v>1.009309525538369</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040921374581952</v>
+        <v>1.0472698362445</v>
       </c>
       <c r="J18">
-        <v>1.04470481380599</v>
+        <v>1.029472133553232</v>
       </c>
       <c r="K18">
-        <v>1.043967402829832</v>
+        <v>1.033905872410487</v>
       </c>
       <c r="L18">
-        <v>1.040615758962489</v>
+        <v>1.022969476287742</v>
       </c>
       <c r="N18">
-        <v>1.046188414470911</v>
+        <v>1.030934102064981</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03870366987901</v>
+        <v>1.002961771195336</v>
       </c>
       <c r="D19">
-        <v>1.040722566666718</v>
+        <v>1.020769222432625</v>
       </c>
       <c r="E19">
-        <v>1.037368084623468</v>
+        <v>1.009679605567857</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040947514403009</v>
+        <v>1.047447590020736</v>
       </c>
       <c r="J19">
-        <v>1.044761679873903</v>
+        <v>1.02977937560021</v>
       </c>
       <c r="K19">
-        <v>1.044016109320508</v>
+        <v>1.034176155625029</v>
       </c>
       <c r="L19">
-        <v>1.040673036603661</v>
+        <v>1.023269663651083</v>
       </c>
       <c r="N19">
-        <v>1.046245361295163</v>
+        <v>1.031241780430908</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03832681930165</v>
+        <v>1.000903238817338</v>
       </c>
       <c r="D20">
-        <v>1.040440107769059</v>
+        <v>1.019249457014301</v>
       </c>
       <c r="E20">
-        <v>1.037046951869313</v>
+        <v>1.008018295224311</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040830494062649</v>
+        <v>1.046648523210557</v>
       </c>
       <c r="J20">
-        <v>1.044507298397866</v>
+        <v>1.028399386470521</v>
       </c>
       <c r="K20">
-        <v>1.043798209658628</v>
+        <v>1.032962067204232</v>
       </c>
       <c r="L20">
-        <v>1.04041683891876</v>
+        <v>1.02192160279871</v>
       </c>
       <c r="N20">
-        <v>1.045990618568253</v>
+        <v>1.029859831558368</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037101295382718</v>
+        <v>0.9940569262489709</v>
       </c>
       <c r="D21">
-        <v>1.039521436777787</v>
+        <v>1.014201261711648</v>
       </c>
       <c r="E21">
-        <v>1.036003110605129</v>
+        <v>1.002504003868196</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04044799662503</v>
+        <v>1.04397634921297</v>
       </c>
       <c r="J21">
-        <v>1.0436791717481</v>
+        <v>1.023805243699065</v>
       </c>
       <c r="K21">
-        <v>1.043088518622534</v>
+        <v>1.02891849075483</v>
       </c>
       <c r="L21">
-        <v>1.039583237153337</v>
+        <v>1.017438091910422</v>
       </c>
       <c r="N21">
-        <v>1.045161315883657</v>
+        <v>1.025259164577221</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036330489976467</v>
+        <v>0.9896273382904591</v>
       </c>
       <c r="D22">
-        <v>1.03894354896784</v>
+        <v>1.010940442613183</v>
       </c>
       <c r="E22">
-        <v>1.035346953414138</v>
+        <v>0.9989451543752655</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040205931109257</v>
+        <v>1.042236486730984</v>
       </c>
       <c r="J22">
-        <v>1.043157645166809</v>
+        <v>1.02082964682254</v>
       </c>
       <c r="K22">
-        <v>1.04264132742765</v>
+        <v>1.026298238747295</v>
       </c>
       <c r="L22">
-        <v>1.039058597914271</v>
+        <v>1.014537536966381</v>
       </c>
       <c r="N22">
-        <v>1.044639048674801</v>
+        <v>1.022279342011825</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036739134377262</v>
+        <v>0.9919878814727631</v>
       </c>
       <c r="D23">
-        <v>1.039249925009395</v>
+        <v>1.012677603198781</v>
       </c>
       <c r="E23">
-        <v>1.035694780813301</v>
+        <v>1.000840808036297</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040334403870848</v>
+        <v>1.043164673648743</v>
       </c>
       <c r="J23">
-        <v>1.043434196975663</v>
+        <v>1.022415628565266</v>
       </c>
       <c r="K23">
-        <v>1.042878484895563</v>
+        <v>1.027694935057728</v>
       </c>
       <c r="L23">
-        <v>1.039336768511159</v>
+        <v>1.016083200970242</v>
       </c>
       <c r="N23">
-        <v>1.044915993218944</v>
+        <v>1.02386757603054</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038347360863226</v>
+        <v>1.001016002090891</v>
       </c>
       <c r="D24">
-        <v>1.040455504607192</v>
+        <v>1.019332685437767</v>
       </c>
       <c r="E24">
-        <v>1.037064454506619</v>
+        <v>1.008109259822016</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040836880005495</v>
+        <v>1.046692349962638</v>
       </c>
       <c r="J24">
-        <v>1.044521167652876</v>
+        <v>1.028474997862523</v>
       </c>
       <c r="K24">
-        <v>1.043810091113916</v>
+        <v>1.033028595335544</v>
       </c>
       <c r="L24">
-        <v>1.040430805547691</v>
+        <v>1.021995448779359</v>
       </c>
       <c r="N24">
-        <v>1.046004507519196</v>
+        <v>1.02993555032722</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040212471967566</v>
+        <v>1.010993108146468</v>
       </c>
       <c r="D25">
-        <v>1.041853276980113</v>
+        <v>1.026706385971272</v>
       </c>
       <c r="E25">
-        <v>1.038654526946066</v>
+        <v>1.016175840963543</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041413124555788</v>
+        <v>1.050543368571645</v>
       </c>
       <c r="J25">
-        <v>1.04577884157871</v>
+        <v>1.035156090733443</v>
       </c>
       <c r="K25">
-        <v>1.044886903268138</v>
+        <v>1.038903797628567</v>
       </c>
       <c r="L25">
-        <v>1.041698112203022</v>
+        <v>1.028528132217654</v>
       </c>
       <c r="N25">
-        <v>1.047263967486261</v>
+        <v>1.036626131116347</v>
       </c>
     </row>
   </sheetData>
